--- a/biology/Botanique/Jardin_français_de_Celle/Jardin_français_de_Celle.xlsx
+++ b/biology/Botanique/Jardin_français_de_Celle/Jardin_français_de_Celle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_fran%C3%A7ais_de_Celle</t>
+          <t>Jardin_français_de_Celle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin français de Celle (Französische Garten) est un jardin ouvert au public situé à Celle en Basse-Saxe (ancienne principauté de Brunswick-Lunebourg) à côté du château de Celle et dans la partie-sud de la vieille ville.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_fran%C3%A7ais_de_Celle</t>
+          <t>Jardin_français_de_Celle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin à la française a été aménagé pour le duc Georges-Guillaume de Brunswick-Lunebourg à partir de 1670-1675 au-delà des remparts du château par les jardiniers français Perronet, puis René Dahuron (en 1690-1701). Il a été ensuite aménagé par Schamburg en jardin anglais, mais il reste encore la structure de l'ancien jardin baroque. Ainsi une grande allée de tilleuls (1695, replantée en 1951-1953) forme un axe est-ouest, bordée de parterres et de corbeilles de fleurs, avec des pelouses, un étang et une fontaine. Le mémorial de la reine de Danemark, Caroline-Mathilde, bannie à Celle, est un groupe sculpté en marbre de Crottendorf commandé par la ville de Celle et la noblesse du Lunebourg en hommage à cette princesse hanovrienne au destin malheureux, morte à Celle à l'âge de 25 ans. Il est l'œuvre d'Adam Friedrich Oeser, de l'académie de dessin, de peinture et d'architecture de Leipzig, et se trouve dans la partie-est du jardin.
 Ce jardin est un parc historique protégé.
